--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_7_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_7_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2447311.112242274</v>
+        <v>-2450243.62121159</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673428</v>
       </c>
     </row>
     <row r="9">
@@ -659,19 +659,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>251.9962663290212</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>16.72973301381641</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>149.1161654959973</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>112.7863412952375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>66.34537038670555</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>211.6861417491117</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,16 +1054,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>128.4678304511571</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>59.49560824227976</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1151,7 +1151,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>121.8018685040402</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481175</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>321.003365029253</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229334</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>109.6230087804335</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>144.3968844608069</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>381.1967972861383</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>368.1940563011266</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1528,10 +1528,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>91.23885045891194</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>67.18075159108356</v>
       </c>
       <c r="S13" t="n">
-        <v>181.338488358459</v>
+        <v>97.1690344924847</v>
       </c>
       <c r="T13" t="n">
         <v>217.4819944627618</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>126.6035148834803</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,10 +1819,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,13 +2056,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>205.5383435306678</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2254,7 +2254,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428213</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2482,7 +2482,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E25" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F25" t="n">
         <v>121.1364005308915</v>
@@ -2491,10 +2491,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H25" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I25" t="n">
-        <v>56.98118882652582</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S25" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096051</v>
       </c>
       <c r="T25" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352484</v>
       </c>
       <c r="U25" t="n">
-        <v>261.8998268972051</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V25" t="n">
         <v>227.8529958317883</v>
@@ -2713,10 +2713,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261727</v>
+        <v>124.330825526173</v>
       </c>
       <c r="E28" t="n">
         <v>122.1493151545295</v>
@@ -2725,13 +2725,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G28" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652564</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
@@ -2767,7 +2767,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972039</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V28" t="n">
         <v>227.8529958317883</v>
@@ -2776,7 +2776,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y28" t="n">
         <v>194.3000058600551</v>
@@ -2846,7 +2846,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096056</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652578</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096051</v>
       </c>
       <c r="T34" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3317,7 +3317,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T37" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972053</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3709,13 +3709,13 @@
         <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096051</v>
       </c>
       <c r="T40" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972053</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972048</v>
@@ -4189,7 +4189,7 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1236.578376364604</v>
+        <v>666.7503635877424</v>
       </c>
       <c r="C2" t="n">
-        <v>867.6158594241924</v>
+        <v>666.7503635877424</v>
       </c>
       <c r="D2" t="n">
-        <v>867.6158594241924</v>
+        <v>308.4846649809919</v>
       </c>
       <c r="E2" t="n">
-        <v>481.8276068259482</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F2" t="n">
-        <v>70.84170203634062</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.086203674652</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W2" t="n">
-        <v>2013.317548404538</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X2" t="n">
-        <v>2013.317548404538</v>
+        <v>1443.489535627676</v>
       </c>
       <c r="Y2" t="n">
-        <v>1623.178216428726</v>
+        <v>1053.350203651864</v>
       </c>
     </row>
     <row r="3">
@@ -4383,40 +4383,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>577.5065948165382</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>349.5170439185208</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1258.850788876759</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C5" t="n">
-        <v>1258.850788876759</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D5" t="n">
-        <v>1191.835263233623</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2388.358616186807</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>2035.589960916693</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X5" t="n">
-        <v>2035.589960916693</v>
+        <v>1349.6523186161</v>
       </c>
       <c r="Y5" t="n">
-        <v>1645.450628940881</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4659,34 +4659,34 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>365.6939024587809</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="C7" t="n">
-        <v>235.9284171545819</v>
+        <v>411.0461427127113</v>
       </c>
       <c r="D7" t="n">
-        <v>235.9284171545819</v>
+        <v>260.9295033003756</v>
       </c>
       <c r="E7" t="n">
-        <v>235.9284171545819</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4750,25 +4750,25 @@
         <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>365.6939024587809</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>365.6939024587809</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U7" t="n">
-        <v>365.6939024587809</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V7" t="n">
-        <v>365.6939024587809</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W7" t="n">
-        <v>365.6939024587809</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X7" t="n">
-        <v>365.6939024587809</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="Y7" t="n">
-        <v>365.6939024587809</v>
+        <v>579.9823256406182</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1282.700798147047</v>
+        <v>1683.829970582156</v>
       </c>
       <c r="C8" t="n">
-        <v>913.7382812066351</v>
+        <v>1314.867453641744</v>
       </c>
       <c r="D8" t="n">
-        <v>555.4725825998845</v>
+        <v>1314.867453641744</v>
       </c>
       <c r="E8" t="n">
-        <v>555.4725825998845</v>
+        <v>929.0792010434996</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>518.093296253892</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>504.169892192483</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>176.9751722284858</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2388.358616186806</v>
       </c>
       <c r="V8" t="n">
-        <v>1669.300638211168</v>
+        <v>2057.295728843235</v>
       </c>
       <c r="W8" t="n">
-        <v>1669.300638211168</v>
+        <v>2057.295728843235</v>
       </c>
       <c r="X8" t="n">
-        <v>1669.300638211168</v>
+        <v>1683.829970582156</v>
       </c>
       <c r="Y8" t="n">
-        <v>1669.300638211168</v>
+        <v>1683.829970582156</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4878,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571346</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915165</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.81559303506</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>245.45494510253</v>
+        <v>507.336405062904</v>
       </c>
       <c r="C10" t="n">
-        <v>245.45494510253</v>
+        <v>396.6060931634762</v>
       </c>
       <c r="D10" t="n">
-        <v>245.45494510253</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="E10" t="n">
-        <v>245.45494510253</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F10" t="n">
         <v>99.59950625323012</v>
@@ -4960,52 +4960,52 @@
         <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="W10" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="X10" t="n">
-        <v>245.45494510253</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Y10" t="n">
-        <v>245.45494510253</v>
+        <v>507.336405062904</v>
       </c>
     </row>
     <row r="11">
@@ -5048,10 +5048,10 @@
         <v>1462.462702840541</v>
       </c>
       <c r="M11" t="n">
-        <v>2183.467264779579</v>
+        <v>2232.714216052256</v>
       </c>
       <c r="N11" t="n">
-        <v>2920.752242696685</v>
+        <v>2969.999193969362</v>
       </c>
       <c r="O11" t="n">
         <v>3652.861230428501</v>
@@ -5081,10 +5081,10 @@
         <v>3466.881868950625</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.968680767669</v>
+        <v>3093.416110689545</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.829348791857</v>
+        <v>2703.276778713734</v>
       </c>
     </row>
     <row r="12">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>495.0640298439646</v>
+        <v>580.0836802136356</v>
       </c>
       <c r="C13" t="n">
-        <v>402.9035748349626</v>
+        <v>411.1474972857287</v>
       </c>
       <c r="D13" t="n">
-        <v>402.9035748349626</v>
+        <v>261.030857873393</v>
       </c>
       <c r="E13" t="n">
-        <v>402.9035748349626</v>
+        <v>261.030857873393</v>
       </c>
       <c r="F13" t="n">
-        <v>402.9035748349626</v>
+        <v>261.030857873393</v>
       </c>
       <c r="G13" t="n">
-        <v>235.6893800095415</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5224,25 +5224,25 @@
         <v>2361.52146919056</v>
       </c>
       <c r="S13" t="n">
-        <v>2178.35127892949</v>
+        <v>2263.370929299162</v>
       </c>
       <c r="T13" t="n">
-        <v>1958.672496643873</v>
+        <v>2043.692147013544</v>
       </c>
       <c r="U13" t="n">
-        <v>1669.596282958599</v>
+        <v>1754.615933328271</v>
       </c>
       <c r="V13" t="n">
-        <v>1414.911794752712</v>
+        <v>1499.931445122384</v>
       </c>
       <c r="W13" t="n">
-        <v>1125.494624715752</v>
+        <v>1210.514275085423</v>
       </c>
       <c r="X13" t="n">
-        <v>897.5050738177345</v>
+        <v>982.5247241874055</v>
       </c>
       <c r="Y13" t="n">
-        <v>676.7124946742043</v>
+        <v>761.7321450438753</v>
       </c>
     </row>
     <row r="14">
@@ -5258,40 +5258,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5367,10 +5367,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1057.613315601761</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1977.461080510509</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1688.043910473548</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1460.054359575531</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1239.261780432001</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5504,31 +5504,31 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1836.89229584329</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1582.207807637403</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5747,28 +5747,28 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5838,13 +5838,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5966,25 +5966,25 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
@@ -6002,34 +6002,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6075,10 +6075,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190825</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O24" t="n">
         <v>1896.176478190825</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C25" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D25" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E25" t="n">
         <v>533.5814564942652</v>
       </c>
       <c r="F25" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G25" t="n">
         <v>268.5553036345476</v>
@@ -6148,10 +6148,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K25" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L25" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M25" t="n">
         <v>1344.317444979286</v>
@@ -6172,7 +6172,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S25" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T25" t="n">
         <v>2243.385329532432</v>
@@ -6190,7 +6190,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y25" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6312,16 +6312,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H28" t="n">
-        <v>151.3734194384018</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6406,19 +6406,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T28" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
         <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W28" t="n">
         <v>1483.798285518751</v>
@@ -6455,25 +6455,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,28 +6482,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,10 +6534,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6549,16 +6549,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G31" t="n">
         <v>268.5553036345476</v>
@@ -6616,7 +6616,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
@@ -6643,28 +6643,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S31" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,16 +6710,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273905</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>95.58405025273905</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>692.9625378792909</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
@@ -6853,16 +6853,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6883,7 +6883,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6926,19 +6926,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7023,16 +7023,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.311647517212</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7096,10 +7096,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7129,16 +7129,16 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7260,16 +7260,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1344.266747951538</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7312,13 +7312,13 @@
         <v>782.5512955656814</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7333,10 +7333,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7357,7 +7357,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7497,16 +7497,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1268.578514636218</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N42" t="n">
-        <v>1896.176478190825</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7546,13 +7546,13 @@
         <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
         <v>411.2214559580113</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,16 +7591,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7734,16 +7734,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7807,7 +7807,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311323</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8307,10 +8307,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783523</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270196</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992674</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8696,13 +8696,13 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>49.74439522492685</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>49.74439522492685</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -22547,19 +22547,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>129.9341037432406</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>397.0544370069786</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -22592,25 +22592,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>105.7983120568544</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>105.7983120568573</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.537044377342227</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1.537044377342397</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>76.00797063971589</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
         <v>81.80457674440903</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>84.16945386597426</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>40.64330621514758</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,10 +23707,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>37.12601365260461</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,13 +23944,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>80.64613085857638</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194173</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15897.72560895847</v>
+        <v>15897.72560895846</v>
       </c>
       <c r="C2" t="n">
+        <v>20526.04424660709</v>
+      </c>
+      <c r="D2" t="n">
         <v>20526.04424660708</v>
-      </c>
-      <c r="D2" t="n">
-        <v>20526.04424660707</v>
       </c>
       <c r="E2" t="n">
         <v>20164.01570965307</v>
@@ -26326,16 +26326,16 @@
         <v>20178.66499225015</v>
       </c>
       <c r="G2" t="n">
-        <v>20178.66499225014</v>
+        <v>20178.66499225015</v>
       </c>
       <c r="H2" t="n">
         <v>20178.66499225016</v>
       </c>
       <c r="I2" t="n">
+        <v>20526.04424660709</v>
+      </c>
+      <c r="J2" t="n">
         <v>20526.0442466071</v>
-      </c>
-      <c r="J2" t="n">
-        <v>20526.04424660709</v>
       </c>
       <c r="K2" t="n">
         <v>20526.0442466071</v>
@@ -26344,7 +26344,7 @@
         <v>20526.0442466071</v>
       </c>
       <c r="M2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.04424660711</v>
       </c>
       <c r="N2" t="n">
         <v>20526.0442466071</v>
@@ -26353,7 +26353,7 @@
         <v>20526.0442466071</v>
       </c>
       <c r="P2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>936391.4095185974</v>
+        <v>936391.4095185976</v>
       </c>
       <c r="F3" t="n">
-        <v>7852.637614951069</v>
+        <v>7852.63761495089</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,28 +26384,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363181</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>3.126388037344441e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080585</v>
+        <v>124208.5107080586</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363181</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5.115907697472721e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,37 +26415,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>95396.83018339486</v>
+        <v>95396.83018339492</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
       </c>
       <c r="D4" t="n">
-        <v>201064.5059277315</v>
+        <v>201064.5059277316</v>
       </c>
       <c r="E4" t="n">
-        <v>5759.938886718171</v>
+        <v>5759.938886718172</v>
       </c>
       <c r="F4" t="n">
-        <v>5067.592601670461</v>
+        <v>5067.592601670468</v>
       </c>
       <c r="G4" t="n">
-        <v>5067.59260167046</v>
+        <v>5067.592601670466</v>
       </c>
       <c r="H4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="I4" t="n">
-        <v>13058.4518647639</v>
+        <v>13058.45186476391</v>
       </c>
       <c r="J4" t="n">
-        <v>13058.45186476389</v>
+        <v>13058.45186476391</v>
       </c>
       <c r="K4" t="n">
+        <v>13058.45186476395</v>
+      </c>
+      <c r="L4" t="n">
         <v>13058.45186476391</v>
-      </c>
-      <c r="L4" t="n">
-        <v>13058.4518647639</v>
       </c>
       <c r="M4" t="n">
         <v>13058.45186476391</v>
@@ -26454,7 +26454,7 @@
         <v>13058.45186476391</v>
       </c>
       <c r="O4" t="n">
-        <v>13058.4518647639</v>
+        <v>13058.45186476391</v>
       </c>
       <c r="P4" t="n">
         <v>13058.45186476391</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-752326.0618523903</v>
+        <v>-752788.8937161552</v>
       </c>
       <c r="C6" t="n">
         <v>-263397.5397445339</v>
@@ -26528,22 +26528,22 @@
         <v>-263397.5397445339</v>
       </c>
       <c r="E6" t="n">
-        <v>-1022893.291474138</v>
+        <v>-1022929.494327834</v>
       </c>
       <c r="F6" t="n">
-        <v>-93864.0950482785</v>
+        <v>-93898.83297371402</v>
       </c>
       <c r="G6" t="n">
-        <v>-86011.45743332744</v>
+        <v>-86046.1953587631</v>
       </c>
       <c r="H6" t="n">
-        <v>-86011.45743332739</v>
+        <v>-86046.19535876309</v>
       </c>
       <c r="I6" t="n">
         <v>-115124.241465704</v>
       </c>
       <c r="J6" t="n">
-        <v>-272119.7426646652</v>
+        <v>-272119.7426646651</v>
       </c>
       <c r="K6" t="n">
         <v>-95696.52347207224</v>
@@ -26552,16 +26552,16 @@
         <v>-95696.52347207221</v>
       </c>
       <c r="M6" t="n">
-        <v>-219905.0341801307</v>
+        <v>-219905.0341801308</v>
       </c>
       <c r="N6" t="n">
         <v>-115124.241465704</v>
       </c>
       <c r="O6" t="n">
-        <v>-95696.52347207219</v>
+        <v>-95696.52347207221</v>
       </c>
       <c r="P6" t="n">
-        <v>-95696.52347207227</v>
+        <v>-95696.52347207222</v>
       </c>
     </row>
   </sheetData>
@@ -26704,25 +26704,25 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L2" t="n">
         <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203973</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
         <v>1358.041048716386</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26926,13 +26926,13 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.907985046680551e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26941,13 +26941,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.394884621840902e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>980.2973844992989</v>
+        <v>980.2973844992991</v>
       </c>
       <c r="F3" t="n">
-        <v>9.934451625288375</v>
+        <v>9.934451625288148</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.421015345093</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.421015345093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.907985046680551e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.421015345093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>14.30683054921445</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>137.4068328405937</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>288.3376712339774</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>158.0449589293573</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,16 +27774,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>38.77899064747078</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>86.93835440428941</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>30.12944774082112</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>6.748893440881943</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,16 +28011,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>57.62381231819435</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>1.024163562124357</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,7 +28029,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28068,16 +28068,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28576,10 +28576,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
         <v>5.115907697472721e-13</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="29">
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="32">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554464</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633793</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.64752920647355</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,31 +31592,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141105</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.84709008118891</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034979</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.0534542921061915</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078608</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644439</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302235</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175839</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383796</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678005</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>405.637736314577</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>405.637736314577</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32795,13 +32795,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -33032,19 +33032,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>405.6377363145776</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33269,10 +33269,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O30" t="n">
         <v>142.5962444444444</v>
@@ -33281,7 +33281,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N33" t="n">
-        <v>752.2150000824574</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33743,19 +33743,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>340.4395077511235</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33980,10 +33980,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>416.4300581532626</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33992,7 +33992,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34217,19 +34217,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>339.9772972286971</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34454,19 +34454,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>575.5951359912046</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>164.9290651940687</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,10 +35027,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35173,25 +35173,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328948</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.8709020871395</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873145</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35416,13 +35416,13 @@
         <v>625.777556066439</v>
       </c>
       <c r="M11" t="n">
-        <v>728.287436302058</v>
+        <v>778.0318315269849</v>
       </c>
       <c r="N11" t="n">
         <v>744.7323009263698</v>
       </c>
       <c r="O11" t="n">
-        <v>739.5040280119352</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P11" t="n">
         <v>553.8443926134828</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>274.2960242312436</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35905,7 +35905,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,22 +36203,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>274.2960242312436</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36443,13 +36443,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36531,10 +36531,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P25" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q25" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,19 +36680,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>274.2960242312443</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36917,10 +36917,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>197.8432633066788</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36929,7 +36929,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,10 +36990,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M31" t="n">
         <v>450.5570744930848</v>
@@ -37008,7 +37008,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N33" t="n">
-        <v>620.8732879991242</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549932</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37391,19 +37391,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>197.843263306679</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,16 +37464,16 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
         <v>397.5465471980851</v>
@@ -37561,7 +37561,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37628,10 +37628,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>274.2960242312443</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37640,7 +37640,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37707,10 +37707,10 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
         <v>397.5465471980851</v>
@@ -37789,7 +37789,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,19 +37865,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>197.8432633066788</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38102,19 +38102,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>433.4611020691863</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
